--- a/設計書/04.画面詳細.xlsx
+++ b/設計書/04.画面詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B908AB47-94CD-4FC5-9A1C-A1824A9ECE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2088FF0-6EEB-4A6C-AAC1-07D49FEB0982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="850" activeTab="1" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" tabRatio="850" firstSheet="6" activeTab="8" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="04出退勤画面" sheetId="5" r:id="rId6"/>
     <sheet name="05日報画面" sheetId="7" r:id="rId7"/>
     <sheet name="06勤怠一覧" sheetId="9" r:id="rId8"/>
-    <sheet name="07勤怠絞り込み" sheetId="16" r:id="rId9"/>
+    <sheet name="07勤怠合計" sheetId="16" r:id="rId9"/>
     <sheet name="08日報表示" sheetId="17" r:id="rId10"/>
     <sheet name="09勤怠修正" sheetId="10" r:id="rId11"/>
     <sheet name="10部下一覧" sheetId="12" r:id="rId12"/>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="252">
   <si>
     <t>変更日</t>
   </si>
@@ -3459,6 +3459,16 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠合計</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3470,7 +3480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3517,13 +3527,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -4126,7 +4129,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4157,18 +4160,18 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4323,17 +4326,17 @@
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5">
+    <row r="2" spans="1:9" ht="36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4569,17 +4572,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4770,16 +4773,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5015,16 +5018,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5263,17 +5266,17 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5322,17 +5325,17 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5546,17 +5549,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.375" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5746,17 +5749,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5810,18 +5813,18 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5">
+    <row r="2" spans="1:9" ht="36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="56.25">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5">
+    <row r="9" spans="1:9" ht="36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5">
+    <row r="10" spans="1:9" ht="36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6131,22 +6134,22 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" activeCellId="1" sqref="F26 E13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6195,18 +6198,18 @@
       <selection pane="bottomLeft" activeCell="I25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="56.25">
+    <row r="4" spans="1:9" ht="54">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5">
+    <row r="9" spans="1:9" ht="36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5">
+    <row r="10" spans="1:9" ht="36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6515,18 +6518,18 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6662,7 +6665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6779,18 +6782,18 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="56.25">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="56.25">
+    <row r="4" spans="1:9" ht="54">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="131.25">
+    <row r="7" spans="1:9" ht="126">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5">
+    <row r="9" spans="1:9" ht="36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5">
+    <row r="10" spans="1:9" ht="36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5">
+    <row r="11" spans="1:9" ht="36">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5">
+    <row r="12" spans="1:9" ht="36">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7292,18 +7295,18 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75">
+    <row r="2" spans="1:9" ht="72">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7358,7 +7361,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75">
+    <row r="9" spans="1:9" ht="72">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7613,18 +7616,18 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="93.75">
+    <row r="6" spans="1:9" ht="90">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5">
+    <row r="9" spans="1:9" ht="36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5">
+    <row r="10" spans="1:9" ht="36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7993,18 +7996,18 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="56.25">
+    <row r="5" spans="1:9" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8156,17 +8159,17 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8380,17 +8383,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.375" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8609,17 +8612,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8673,18 +8676,18 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8895,17 +8898,17 @@
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5">
+    <row r="2" spans="1:9" ht="36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9002,21 +9005,21 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14:G18"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5">
+    <row r="2" spans="1:9" ht="36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9074,7 +9077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9129,12 +9132,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="56.25">
+    <row r="5" spans="1:9" ht="54">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -9158,7 +9161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5">
+    <row r="9" spans="1:9" ht="36">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5">
+    <row r="10" spans="1:9" ht="36">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5">
+    <row r="11" spans="1:9" ht="36">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5">
+    <row r="12" spans="1:9" ht="36">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5">
+    <row r="13" spans="1:9" ht="36">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5">
+    <row r="14" spans="1:9" ht="36">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="37.5">
+    <row r="15" spans="1:9" ht="36">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="37.5">
+    <row r="16" spans="1:9" ht="36">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="56.25">
+    <row r="17" spans="1:9" ht="54">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="56.25">
+    <row r="18" spans="1:9" ht="54">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9522,23 +9525,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E2641F-5A10-43B0-8894-A4FD8061B541}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5">
+    <row r="2" spans="1:9" ht="36">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="56.25">
+    <row r="3" spans="1:9" ht="54">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="37.5">
+    <row r="4" spans="1:9" ht="36">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
+    <row r="5" spans="1:9" ht="36">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9674,15 +9677,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.5">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -9703,7 +9706,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5">
+    <row r="7" spans="1:9" ht="36">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9729,7 +9732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="36">
       <c r="A8">
         <v>7</v>
       </c>
